--- a/files/tkinter_1.xlsx
+++ b/files/tkinter_1.xlsx
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\netha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{865320B2-CA18-40CE-8EA9-2D363CAEFCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78FA68DE-E419-42C8-8286-4FD41A398AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="2820" windowWidth="18585" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="2070" windowWidth="17325" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tkinter_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
-  <si>
-    <t>Opportunity</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>Opportunity Name</t>
   </si>
   <si>
     <t>Contact</t>
@@ -31,232 +44,217 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>EXIT GRASSROOTS REALTY</t>
-  </si>
-  <si>
-    <t>CORPORATE VISION INC</t>
-  </si>
-  <si>
-    <t>HARMONY TRAVEL GETAWAYS</t>
-  </si>
-  <si>
-    <t>Capital Waste Services LLC</t>
-  </si>
-  <si>
-    <t>D Geller And Son</t>
-  </si>
-  <si>
-    <t>KEY AUTISM SERVICES</t>
-  </si>
-  <si>
-    <t>A AND M LIMO</t>
-  </si>
-  <si>
-    <t>ARIANA COMMUNICATION LLC</t>
-  </si>
-  <si>
-    <t>Imagine Pediatrics PC</t>
-  </si>
-  <si>
-    <t>Window Concepts Ltd</t>
-  </si>
-  <si>
-    <t>King Tint</t>
-  </si>
-  <si>
-    <t>Big Door Vineyards</t>
-  </si>
-  <si>
-    <t>DOWNTOWN CONDOS WOODSTOCK</t>
-  </si>
-  <si>
-    <t>YNDR</t>
-  </si>
-  <si>
-    <t>Chris Rautenstrauch</t>
-  </si>
-  <si>
-    <t>Sushi Bros</t>
-  </si>
-  <si>
-    <t>CHEVRON GAS STATION</t>
-  </si>
-  <si>
-    <t>Denise Newman</t>
-  </si>
-  <si>
-    <t>225 NJD LLC</t>
-  </si>
-  <si>
-    <t>Burden Bonding Company</t>
-  </si>
-  <si>
-    <t>South Atlanta Body Shop LLC</t>
-  </si>
-  <si>
-    <t>KAMADO</t>
-  </si>
-  <si>
-    <t>KINSER EULER</t>
-  </si>
-  <si>
-    <t>MARY BERBLINGER</t>
-  </si>
-  <si>
-    <t>Jennifer Fowler</t>
-  </si>
-  <si>
-    <t>Demitra Bryant</t>
-  </si>
-  <si>
-    <t>Tara Lee</t>
-  </si>
-  <si>
-    <t>Ocran Israel</t>
-  </si>
-  <si>
-    <t>PARHAM SABETAZM</t>
-  </si>
-  <si>
-    <t>Avi Heber</t>
-  </si>
-  <si>
-    <t>Marc Lucas</t>
-  </si>
-  <si>
-    <t>Vahid Azimi</t>
-  </si>
-  <si>
-    <t>Esteban Quintero</t>
-  </si>
-  <si>
-    <t>Russell Housworth</t>
-  </si>
-  <si>
-    <t>Mohamed Khatib</t>
-  </si>
-  <si>
-    <t>Joseph Owen</t>
-  </si>
-  <si>
-    <t>Cristi Heck</t>
-  </si>
-  <si>
-    <t>CHRIS THOMAS</t>
-  </si>
-  <si>
-    <t>Yan Chen</t>
-  </si>
-  <si>
-    <t>Faroog Baig</t>
-  </si>
-  <si>
-    <t>Sheila Huddleston</t>
-  </si>
-  <si>
-    <t>CHARLES BURDEN</t>
-  </si>
-  <si>
-    <t>SAUL ESPINOZA</t>
-  </si>
-  <si>
-    <t>Bella Yang</t>
+    <t>PAUL A SHEPHERD DMD MS</t>
+  </si>
+  <si>
+    <t>Dbois Inc</t>
+  </si>
+  <si>
+    <t>A TO Z CELLULAR OF GA INC</t>
+  </si>
+  <si>
+    <t>Topikal</t>
+  </si>
+  <si>
+    <t>Serenity Nail Salon</t>
+  </si>
+  <si>
+    <t>untouchable smoke llc</t>
+  </si>
+  <si>
+    <t>ACCOMPLIX INC</t>
+  </si>
+  <si>
+    <t>Noraeg Holdings LLC</t>
+  </si>
+  <si>
+    <t>EMPOWERHER BUSINESS SOLUTIONS</t>
+  </si>
+  <si>
+    <t>SB Lakewood LLC</t>
+  </si>
+  <si>
+    <t>Sentry Cleaners</t>
+  </si>
+  <si>
+    <t>DWH STUDIO ATL</t>
+  </si>
+  <si>
+    <t>Dr Loliya Stewart</t>
+  </si>
+  <si>
+    <t>Robert Esther</t>
+  </si>
+  <si>
+    <t>BOVER USA INC</t>
+  </si>
+  <si>
+    <t>Paris Bistro</t>
+  </si>
+  <si>
+    <t>Angelos of NY</t>
+  </si>
+  <si>
+    <t>LAW FIRM BRUNSON GRANT</t>
+  </si>
+  <si>
+    <t>A J WHEELS TIRES</t>
+  </si>
+  <si>
+    <t>EXQUISITE AND CO</t>
+  </si>
+  <si>
+    <t>Ferentino Tires</t>
+  </si>
+  <si>
+    <t>ONE LPSG METRO</t>
+  </si>
+  <si>
+    <t>BAYBOL PEDIATRICS</t>
+  </si>
+  <si>
+    <t>PHONE TECH</t>
   </si>
   <si>
     <t>Juli Johnson</t>
   </si>
   <si>
-    <t>(404) 324-7321</t>
-  </si>
-  <si>
-    <t>(770) 490-1762</t>
-  </si>
-  <si>
-    <t>(770) 675-6794</t>
-  </si>
-  <si>
-    <t>(301) 996-1443</t>
-  </si>
-  <si>
-    <t>(770) 435-2576</t>
-  </si>
-  <si>
-    <t>8039230035</t>
-  </si>
-  <si>
-    <t>(770) 955-5995</t>
-  </si>
-  <si>
-    <t>(470) 453-9423</t>
-  </si>
-  <si>
-    <t>(404) 610-5750</t>
-  </si>
-  <si>
-    <t>(248) 862-8413</t>
-  </si>
-  <si>
-    <t>(706) 266-2190</t>
-  </si>
-  <si>
-    <t>(770) 822-5280</t>
-  </si>
-  <si>
-    <t>(706) 879-8651</t>
-  </si>
-  <si>
-    <t>(678) 687-5775</t>
-  </si>
-  <si>
-    <t>(770) 354-8659</t>
-  </si>
-  <si>
-    <t>(404) 725-1803</t>
-  </si>
-  <si>
-    <t>(770) 928-3055</t>
-  </si>
-  <si>
-    <t>(646) 709-1198</t>
-  </si>
-  <si>
-    <t>(404) 576-1980</t>
-  </si>
-  <si>
-    <t>(404) 293-8342</t>
-  </si>
-  <si>
-    <t>(770) 692-2600</t>
-  </si>
-  <si>
-    <t>(770) 584-0549</t>
-  </si>
-  <si>
-    <t>(404) 702-1886</t>
-  </si>
-  <si>
-    <t>(904) 868-6494</t>
-  </si>
-  <si>
-    <t>Dentistry of Olde Towne</t>
-  </si>
-  <si>
-    <t>SAG Industries</t>
-  </si>
-  <si>
-    <t>Sam Gallay</t>
-  </si>
-  <si>
-    <t>Mulligan Order - Trinity Key holdings LLC</t>
-  </si>
-  <si>
-    <t>The Oink Joint</t>
-  </si>
-  <si>
-    <t>Matt Crawford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAUL A SHEPHERD DMD </t>
+    <t>David Miller</t>
+  </si>
+  <si>
+    <t>Asmat Ismael</t>
+  </si>
+  <si>
+    <t>Willis Woerheide</t>
+  </si>
+  <si>
+    <t>dung Quoc tran</t>
+  </si>
+  <si>
+    <t>akeido Isaac</t>
+  </si>
+  <si>
+    <t>KERRY GREAVES</t>
+  </si>
+  <si>
+    <t>Sandee Dean</t>
+  </si>
+  <si>
+    <t>AUGUST FREEMAN</t>
+  </si>
+  <si>
+    <t>Sanghyun Baek</t>
+  </si>
+  <si>
+    <t>Piyush Bhula</t>
+  </si>
+  <si>
+    <t>Darius Williams</t>
+  </si>
+  <si>
+    <t>Loliya Stewart</t>
+  </si>
+  <si>
+    <t>Aneta Moszumanska</t>
+  </si>
+  <si>
+    <t>Sima Kianpour</t>
+  </si>
+  <si>
+    <t>Angelo Tsagaris</t>
+  </si>
+  <si>
+    <t>Donte Grant</t>
+  </si>
+  <si>
+    <t>ANTONIO DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>DONEESHEA SMITH</t>
+  </si>
+  <si>
+    <t>Fredrick Powell</t>
+  </si>
+  <si>
+    <t>Natalee Munnings</t>
+  </si>
+  <si>
+    <t>Carina Galvez</t>
+  </si>
+  <si>
+    <t>Nathan Scott</t>
+  </si>
+  <si>
+    <t>(770) 474-0007</t>
+  </si>
+  <si>
+    <t>(678) 492-7684</t>
+  </si>
+  <si>
+    <t>(252) 479-2113</t>
+  </si>
+  <si>
+    <t>(404) 266-0975</t>
+  </si>
+  <si>
+    <t>(678) 705-4919</t>
+  </si>
+  <si>
+    <t>(818) 863-2953</t>
+  </si>
+  <si>
+    <t>(512) 230-0317</t>
+  </si>
+  <si>
+    <t>(678) 564-2211</t>
+  </si>
+  <si>
+    <t>(919) 793-1852</t>
+  </si>
+  <si>
+    <t>(678) 482-5355</t>
+  </si>
+  <si>
+    <t>(678) 697-4501</t>
+  </si>
+  <si>
+    <t>(770) 715-1653</t>
+  </si>
+  <si>
+    <t>(770) 490-9947</t>
+  </si>
+  <si>
+    <t>(404) 974-8987</t>
+  </si>
+  <si>
+    <t>(404) 924-3242</t>
+  </si>
+  <si>
+    <t>(678) 886-1788</t>
+  </si>
+  <si>
+    <t>(404) 255-6025</t>
+  </si>
+  <si>
+    <t>(678) 499-2254</t>
+  </si>
+  <si>
+    <t>(313) 539-9401</t>
+  </si>
+  <si>
+    <t>(209) 865-8474</t>
+  </si>
+  <si>
+    <t>(940) 354-4926</t>
+  </si>
+  <si>
+    <t>(770) 733-1077</t>
+  </si>
+  <si>
+    <t>(404) 464-7795</t>
+  </si>
+  <si>
+    <t>J Key Investments</t>
   </si>
 </sst>
 </file>
@@ -624,17 +622,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,210 +651,205 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>4045957702</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>67</v>
@@ -864,10 +857,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -875,32 +868,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25">
-        <v>7706291829</v>
-      </c>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
@@ -908,10 +890,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -919,35 +901,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28">
-        <v>4707400355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29">
-        <v>6785883319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30">
-        <v>7704740007</v>
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
